--- a/Infos.xlsx
+++ b/Infos.xlsx
@@ -20,8 +20,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -101,7 +101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -120,7 +120,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17677,7 +17678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17883,7 +17884,7 @@
           <t>CDT_6</t>
         </is>
       </c>
-      <c r="B7" s="8" t="n">
+      <c r="B7" s="9" t="n">
         <v>45739.6636240625</v>
       </c>
       <c r="C7" t="inlineStr">
@@ -17959,7 +17960,7 @@
           <t>CDT_7</t>
         </is>
       </c>
-      <c r="B8" s="8" t="n">
+      <c r="B8" s="9" t="n">
         <v>45739.66438359953</v>
       </c>
       <c r="C8" t="inlineStr">
@@ -18035,7 +18036,7 @@
           <t>CDT_8</t>
         </is>
       </c>
-      <c r="B9" s="8" t="n">
+      <c r="B9" s="9" t="n">
         <v>45739.66674125</v>
       </c>
       <c r="C9" t="inlineStr">
@@ -18107,7 +18108,7 @@
           <t>CDT_9</t>
         </is>
       </c>
-      <c r="B10" s="8" t="n">
+      <c r="B10" s="9" t="n">
         <v>45739.66790609954</v>
       </c>
       <c r="C10" t="inlineStr">
@@ -18183,7 +18184,7 @@
           <t>CDT_10</t>
         </is>
       </c>
-      <c r="B11" s="8" t="n">
+      <c r="B11" s="9" t="n">
         <v>45739.67442059028</v>
       </c>
       <c r="C11" t="inlineStr">
@@ -18259,7 +18260,7 @@
           <t>CDT_11</t>
         </is>
       </c>
-      <c r="B12" s="8" t="n">
+      <c r="B12" s="9" t="n">
         <v>45739.67560795139</v>
       </c>
       <c r="C12" t="inlineStr">
@@ -18335,7 +18336,7 @@
           <t>CDT_12</t>
         </is>
       </c>
-      <c r="B13" s="8" t="n">
+      <c r="B13" s="9" t="n">
         <v>45739.70291142361</v>
       </c>
       <c r="C13" t="inlineStr">
@@ -18415,7 +18416,7 @@
           <t>CDT_13</t>
         </is>
       </c>
-      <c r="B14" s="8" t="n">
+      <c r="B14" s="9" t="n">
         <v>45739.7047866088</v>
       </c>
       <c r="C14" t="inlineStr">
@@ -18491,7 +18492,7 @@
           <t>CDT_14</t>
         </is>
       </c>
-      <c r="B15" s="8" t="n">
+      <c r="B15" s="9" t="n">
         <v>45739.7171046875</v>
       </c>
       <c r="C15" t="inlineStr">
@@ -18567,7 +18568,7 @@
           <t>CDT_15</t>
         </is>
       </c>
-      <c r="B16" s="8" t="n">
+      <c r="B16" s="9" t="n">
         <v>45739.71913450232</v>
       </c>
       <c r="C16" t="inlineStr">
@@ -18643,7 +18644,7 @@
           <t>CDT_16</t>
         </is>
       </c>
-      <c r="B17" s="8" t="n">
+      <c r="B17" s="9" t="n">
         <v>45739.72113638889</v>
       </c>
       <c r="C17" t="inlineStr">
@@ -18723,7 +18724,7 @@
           <t>CDT_17</t>
         </is>
       </c>
-      <c r="B18" s="8" t="n">
+      <c r="B18" s="9" t="n">
         <v>45739.70034765046</v>
       </c>
       <c r="C18" t="inlineStr">
@@ -18799,7 +18800,7 @@
           <t>CDT_18</t>
         </is>
       </c>
-      <c r="B19" s="8" t="n">
+      <c r="B19" s="9" t="n">
         <v>45739.73173576389</v>
       </c>
       <c r="C19" t="inlineStr">
@@ -18879,7 +18880,7 @@
           <t>CDT_19</t>
         </is>
       </c>
-      <c r="B20" s="8" t="n">
+      <c r="B20" s="9" t="n">
         <v>45739.73247185185</v>
       </c>
       <c r="C20" t="inlineStr">
@@ -18955,7 +18956,7 @@
           <t>CDT_20</t>
         </is>
       </c>
-      <c r="B21" s="8" t="n">
+      <c r="B21" s="9" t="n">
         <v>45739.73437784722</v>
       </c>
       <c r="C21" t="inlineStr">
@@ -19035,7 +19036,7 @@
           <t>CDT_21</t>
         </is>
       </c>
-      <c r="B22" s="8" t="n">
+      <c r="B22" s="9" t="n">
         <v>45739.73797746528</v>
       </c>
       <c r="C22" t="inlineStr">
@@ -19115,8 +19116,8 @@
           <t>CDT_22</t>
         </is>
       </c>
-      <c r="B23" s="8" t="n">
-        <v>45739.76857029062</v>
+      <c r="B23" s="9" t="n">
+        <v>45739.76857028935</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -19186,6 +19187,86 @@
       <c r="R23" t="inlineStr">
         <is>
           <t>Intervention chirurgicale récente (moins de 4 mois)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CDT_23</t>
+        </is>
+      </c>
+      <c r="B24" s="9" t="n">
+        <v>45739.82228496046</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>36</v>
+      </c>
+      <c r="E24" t="n">
+        <v>101</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Marié(e)</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Universitaire 1er cycle</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Infirmièr</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Intellectuels et scientifiques</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Bépenda</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Douala 5e</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>4.053016002017063</v>
+      </c>
+      <c r="M24" t="n">
+        <v>9.726235068217076</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Catholique</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Cameroun</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Temporairement non-éligible</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Délai depuis la dernière donation insuffisant: 30 jours (minimum 84 jours pour les femmes),Intervention chirurgicale récente (moins de 4 mois)</t>
         </is>
       </c>
     </row>

--- a/Infos.xlsx
+++ b/Infos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Local" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,8 +11,10 @@
     <sheet name="New_Base" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Info" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Local'!$A$1:$F$445</definedName>
+  </definedNames>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -23,7 +25,7 @@
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
     <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -50,17 +52,6 @@
       <name val="Aptos Narrow"/>
       <b val="1"/>
       <sz val="11"/>
-    </font>
-    <font>
-      <name val="Aptos Narrow"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <sz val="8"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
@@ -107,7 +98,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -117,13 +108,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -527,13 +515,14 @@
   </sheetPr>
   <dimension ref="A1:F445"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col width="18.85546875" customWidth="1" min="1" max="5"/>
+    <col width="34" customWidth="1" min="1" max="1"/>
+    <col width="18.85546875" customWidth="1" min="2" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -775,7 +764,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ari </t>
+          <t>Ari</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -821,7 +810,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Logbessou </t>
+          <t>Logbessou</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -1193,7 +1182,7 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ndogpassi </t>
+          <t>Ndogpassi</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -1355,7 +1344,7 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yansoki </t>
+          <t>Yansoki</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
@@ -1513,7 +1502,7 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Terminus saint Michel </t>
+          <t>Terminus saint Michel</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -1615,7 +1604,7 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ccc </t>
+          <t>Ccc</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
@@ -1642,7 +1631,7 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Soboum-Dakar </t>
+          <t>Soboum-Dakar</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
@@ -1669,7 +1658,7 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hôpital général de douala </t>
+          <t>Hôpital général de douala</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
@@ -1696,7 +1685,7 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Saint Thomas logbaba </t>
+          <t>Saint Thomas logbaba</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -1723,7 +1712,7 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bangapongo </t>
+          <t>Bangapongo</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
@@ -1750,7 +1739,7 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">New town aéroport </t>
+          <t>New town aéroport</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
@@ -1804,7 +1793,7 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">She’ll village </t>
+          <t>She’ll village</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
@@ -1831,7 +1820,7 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bependa </t>
+          <t>Bependa</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
@@ -1858,7 +1847,7 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bocom safari </t>
+          <t>Bocom safari</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
@@ -1966,7 +1955,7 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bonamoussadi </t>
+          <t>Bonamoussadi</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
@@ -2197,7 +2186,7 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ndogbong </t>
+          <t>Ndogbong</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
@@ -2224,7 +2213,7 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Douala </t>
+          <t>Douala</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
@@ -2270,7 +2259,7 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nyalla pariso </t>
+          <t>Nyalla pariso</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -2324,7 +2313,7 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Non précise </t>
+          <t>Non précise</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
@@ -2370,7 +2359,7 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pk9 </t>
+          <t>Pk9</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
@@ -4204,7 +4193,7 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bependa tonnerre </t>
+          <t>Bependa tonnerre</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
@@ -4231,7 +4220,7 @@
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bonabéri </t>
+          <t>Bonabéri</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
@@ -4285,7 +4274,7 @@
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pk15 </t>
+          <t>Pk15</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
@@ -4312,7 +4301,7 @@
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Newton aéroport </t>
+          <t>Newton aéroport</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
@@ -4414,7 +4403,7 @@
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deido </t>
+          <t>Deido</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
@@ -4441,7 +4430,7 @@
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Journaliste </t>
+          <t>Journaliste</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
@@ -4468,7 +4457,7 @@
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yassa </t>
+          <t>Yassa</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
@@ -4576,7 +4565,7 @@
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Japouma </t>
+          <t>Japouma</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
@@ -4657,7 +4646,7 @@
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Village </t>
+          <t>Village</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
@@ -4738,7 +4727,7 @@
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">New bell </t>
+          <t>New bell</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
@@ -4873,7 +4862,7 @@
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bonaberi </t>
+          <t>Bonaberi</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
@@ -4927,7 +4916,7 @@
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cité maetude </t>
+          <t>Cité maetude</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
@@ -5062,7 +5051,7 @@
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Besengue </t>
+          <t>Besengue</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
@@ -5714,7 +5703,7 @@
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">New bel </t>
+          <t>New bel</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
@@ -5795,7 +5784,7 @@
     <row r="202">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nyalla </t>
+          <t>Nyalla</t>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
@@ -5822,7 +5811,7 @@
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Logpom </t>
+          <t>Logpom</t>
         </is>
       </c>
       <c r="B203" s="2" t="inlineStr">
@@ -5849,7 +5838,7 @@
     <row r="204">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Japoma </t>
+          <t>Japoma</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
@@ -5876,7 +5865,7 @@
     <row r="205">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Borne 10 village </t>
+          <t>Borne 10 village</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
@@ -5903,7 +5892,7 @@
     <row r="206">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Henry </t>
+          <t>Henry</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
@@ -5957,7 +5946,7 @@
     <row r="208">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brazzaville </t>
+          <t>Brazzaville</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
@@ -5984,7 +5973,7 @@
     <row r="209">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ekithe </t>
+          <t>Ekithe</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
@@ -6789,7 +6778,7 @@
     <row r="240">
       <c r="A240" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cité sic</t>
+          <t>Cité sic</t>
         </is>
       </c>
       <c r="B240" s="2" t="inlineStr">
@@ -7831,7 +7820,7 @@
     <row r="280">
       <c r="A280" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ange Raphaël </t>
+          <t>Ange Raphaël</t>
         </is>
       </c>
       <c r="B280" s="2" t="inlineStr">
@@ -8187,7 +8176,7 @@
     <row r="294">
       <c r="A294" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NDOGPASSI 3</t>
+          <t>NDOGPASSI 3</t>
         </is>
       </c>
       <c r="B294" s="2" t="inlineStr">
@@ -8927,7 +8916,7 @@
     <row r="322">
       <c r="A322" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bonaberie </t>
+          <t>Bonaberie</t>
         </is>
       </c>
       <c r="B322" s="2" t="inlineStr">
@@ -9135,7 +9124,7 @@
     <row r="330">
       <c r="A330" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Makepe Misoke </t>
+          <t>Makepe Misoke</t>
         </is>
       </c>
       <c r="B330" s="2" t="inlineStr">
@@ -9289,7 +9278,7 @@
     <row r="336">
       <c r="A336" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Newbell </t>
+          <t>Newbell</t>
         </is>
       </c>
       <c r="B336" s="2" t="inlineStr">
@@ -9850,7 +9839,7 @@
     <row r="357">
       <c r="A357" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ndogpassi I </t>
+          <t>Ndogpassi I</t>
         </is>
       </c>
       <c r="B357" s="2" t="inlineStr">
@@ -10384,7 +10373,7 @@
     <row r="377">
       <c r="A377" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kotto </t>
+          <t>Kotto</t>
         </is>
       </c>
       <c r="B377" s="2" t="inlineStr">
@@ -10843,7 +10832,7 @@
     <row r="394">
       <c r="A394" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">PK10 </t>
+          <t>PK10</t>
         </is>
       </c>
       <c r="B394" s="2" t="inlineStr">
@@ -10870,7 +10859,7 @@
     <row r="395">
       <c r="A395" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pas précisé </t>
+          <t>Pas précisé</t>
         </is>
       </c>
       <c r="B395" s="2" t="inlineStr">
@@ -10958,7 +10947,7 @@
     <row r="399">
       <c r="A399" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BONAMOUSSADI </t>
+          <t>BONAMOUSSADI</t>
         </is>
       </c>
       <c r="B399" s="2" t="inlineStr">
@@ -11004,7 +10993,7 @@
     <row r="401">
       <c r="A401" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pk 13 </t>
+          <t>Pk 13</t>
         </is>
       </c>
       <c r="B401" s="2" t="inlineStr">
@@ -11031,7 +11020,7 @@
     <row r="402">
       <c r="A402" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">ARI Village </t>
+          <t>ARI Village</t>
         </is>
       </c>
       <c r="B402" s="2" t="inlineStr">
@@ -11058,7 +11047,7 @@
     <row r="403">
       <c r="A403" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ndokoti </t>
+          <t>Ndokoti</t>
         </is>
       </c>
       <c r="B403" s="2" t="inlineStr">
@@ -11108,7 +11097,7 @@
     <row r="405">
       <c r="A405" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> R A S </t>
+          <t>R A S</t>
         </is>
       </c>
       <c r="B405" s="2" t="inlineStr">
@@ -11152,7 +11141,7 @@
     <row r="407">
       <c r="A407" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oyack </t>
+          <t>Oyack</t>
         </is>
       </c>
       <c r="B407" s="2" t="inlineStr">
@@ -11179,7 +11168,7 @@
     <row r="408">
       <c r="A408" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Douala newtown  Aéroport </t>
+          <t>Douala newtown  Aéroport</t>
         </is>
       </c>
       <c r="B408" s="2" t="inlineStr">
@@ -11206,7 +11195,7 @@
     <row r="409">
       <c r="A409" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">CITE DES PALMIERS </t>
+          <t>CITE DES PALMIERS</t>
         </is>
       </c>
       <c r="B409" s="2" t="inlineStr">
@@ -11287,7 +11276,7 @@
     <row r="412">
       <c r="A412" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">R A S </t>
+          <t>R A S</t>
         </is>
       </c>
       <c r="B412" s="2" t="inlineStr">
@@ -11406,7 +11395,7 @@
     <row r="417">
       <c r="A417" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Edea </t>
+          <t>Edea</t>
         </is>
       </c>
       <c r="B417" s="2" t="inlineStr">
@@ -11452,7 +11441,7 @@
     <row r="419">
       <c r="A419" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Edéa </t>
+          <t>Edéa</t>
         </is>
       </c>
       <c r="B419" s="2" t="inlineStr">
@@ -11494,7 +11483,7 @@
     <row r="421">
       <c r="A421" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> R A S</t>
+          <t>R A S</t>
         </is>
       </c>
       <c r="B421" s="2" t="inlineStr">
@@ -11517,7 +11506,7 @@
     <row r="422">
       <c r="A422" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> R A S</t>
+          <t>R A S</t>
         </is>
       </c>
       <c r="B422" s="2" t="inlineStr">
@@ -11871,7 +11860,7 @@
     <row r="436">
       <c r="A436" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">CITE DE BILLE </t>
+          <t>CITE DE BILLE</t>
         </is>
       </c>
       <c r="B436" s="2" t="inlineStr">
@@ -11898,7 +11887,7 @@
     <row r="437">
       <c r="A437" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">RAS </t>
+          <t>RAS</t>
         </is>
       </c>
       <c r="B437" s="2" t="inlineStr">
@@ -12052,7 +12041,7 @@
     <row r="443">
       <c r="A443" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BONAprISO</t>
+          <t>BONAprISO</t>
         </is>
       </c>
       <c r="B443" s="2" t="inlineStr">
@@ -12131,6 +12120,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F445"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -17684,7 +17674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17693,92 +17683,92 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>Date_remplissage</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>sexe</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>age</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>poids</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>statut_matrimonial</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>niveau_etude</t>
         </is>
       </c>
-      <c r="H1" s="7" t="inlineStr">
+      <c r="H1" s="6" t="inlineStr">
         <is>
           <t>profession</t>
         </is>
       </c>
-      <c r="I1" s="7" t="inlineStr">
+      <c r="I1" s="6" t="inlineStr">
         <is>
           <t>Catégorie_Professionnelle</t>
         </is>
       </c>
-      <c r="J1" s="7" t="inlineStr">
+      <c r="J1" s="6" t="inlineStr">
         <is>
           <t>quartier</t>
         </is>
       </c>
-      <c r="K1" s="7" t="inlineStr">
+      <c r="K1" s="6" t="inlineStr">
         <is>
           <t>Arrondissement</t>
         </is>
       </c>
-      <c r="L1" s="7" t="inlineStr">
+      <c r="L1" s="6" t="inlineStr">
         <is>
           <t>Lat</t>
         </is>
       </c>
-      <c r="M1" s="7" t="inlineStr">
+      <c r="M1" s="6" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="N1" s="7" t="inlineStr">
+      <c r="N1" s="6" t="inlineStr">
         <is>
           <t>religion</t>
         </is>
       </c>
-      <c r="O1" s="7" t="inlineStr">
+      <c r="O1" s="6" t="inlineStr">
         <is>
           <t>nationalite</t>
         </is>
       </c>
-      <c r="P1" s="7" t="inlineStr">
+      <c r="P1" s="6" t="inlineStr">
         <is>
           <t>derniere_donation</t>
         </is>
       </c>
-      <c r="Q1" s="7" t="inlineStr">
+      <c r="Q1" s="6" t="inlineStr">
         <is>
           <t>Statut</t>
         </is>
       </c>
-      <c r="R1" s="7" t="inlineStr">
+      <c r="R1" s="6" t="inlineStr">
         <is>
           <t>Raison</t>
         </is>
@@ -17910,7 +17900,7 @@
           <t>CDT_6</t>
         </is>
       </c>
-      <c r="B7" s="9" t="n">
+      <c r="B7" s="8" t="n">
         <v>45739.6636240625</v>
       </c>
       <c r="C7" t="inlineStr">
@@ -17990,7 +17980,7 @@
           <t>CDT_7</t>
         </is>
       </c>
-      <c r="B8" s="9" t="n">
+      <c r="B8" s="8" t="n">
         <v>45739.66438359953</v>
       </c>
       <c r="C8" t="inlineStr">
@@ -18070,7 +18060,7 @@
           <t>CDT_8</t>
         </is>
       </c>
-      <c r="B9" s="9" t="n">
+      <c r="B9" s="8" t="n">
         <v>45739.66674125</v>
       </c>
       <c r="C9" t="inlineStr">
@@ -18146,7 +18136,7 @@
           <t>CDT_9</t>
         </is>
       </c>
-      <c r="B10" s="9" t="n">
+      <c r="B10" s="8" t="n">
         <v>45739.66790609954</v>
       </c>
       <c r="C10" t="inlineStr">
@@ -18226,7 +18216,7 @@
           <t>CDT_10</t>
         </is>
       </c>
-      <c r="B11" s="9" t="n">
+      <c r="B11" s="8" t="n">
         <v>45739.67442059028</v>
       </c>
       <c r="C11" t="inlineStr">
@@ -18306,7 +18296,7 @@
           <t>CDT_11</t>
         </is>
       </c>
-      <c r="B12" s="9" t="n">
+      <c r="B12" s="8" t="n">
         <v>45739.67560795139</v>
       </c>
       <c r="C12" t="inlineStr">
@@ -18386,7 +18376,7 @@
           <t>CDT_12</t>
         </is>
       </c>
-      <c r="B13" s="9" t="n">
+      <c r="B13" s="8" t="n">
         <v>45739.70291142361</v>
       </c>
       <c r="C13" t="inlineStr">
@@ -18466,7 +18456,7 @@
           <t>CDT_13</t>
         </is>
       </c>
-      <c r="B14" s="9" t="n">
+      <c r="B14" s="8" t="n">
         <v>45739.7047866088</v>
       </c>
       <c r="C14" t="inlineStr">
@@ -18542,7 +18532,7 @@
           <t>CDT_14</t>
         </is>
       </c>
-      <c r="B15" s="9" t="n">
+      <c r="B15" s="8" t="n">
         <v>45739.7171046875</v>
       </c>
       <c r="C15" t="inlineStr">
@@ -18618,7 +18608,7 @@
           <t>CDT_15</t>
         </is>
       </c>
-      <c r="B16" s="9" t="n">
+      <c r="B16" s="8" t="n">
         <v>45739.71913450232</v>
       </c>
       <c r="C16" t="inlineStr">
@@ -18694,7 +18684,7 @@
           <t>CDT_16</t>
         </is>
       </c>
-      <c r="B17" s="9" t="n">
+      <c r="B17" s="8" t="n">
         <v>45739.72113638889</v>
       </c>
       <c r="C17" t="inlineStr">
@@ -18774,7 +18764,7 @@
           <t>CDT_17</t>
         </is>
       </c>
-      <c r="B18" s="9" t="n">
+      <c r="B18" s="8" t="n">
         <v>45739.70034765046</v>
       </c>
       <c r="C18" t="inlineStr">
@@ -18850,7 +18840,7 @@
           <t>CDT_18</t>
         </is>
       </c>
-      <c r="B19" s="9" t="n">
+      <c r="B19" s="8" t="n">
         <v>45739.73173576389</v>
       </c>
       <c r="C19" t="inlineStr">
@@ -18930,7 +18920,7 @@
           <t>CDT_19</t>
         </is>
       </c>
-      <c r="B20" s="9" t="n">
+      <c r="B20" s="8" t="n">
         <v>45739.73247185185</v>
       </c>
       <c r="C20" t="inlineStr">
@@ -19006,7 +18996,7 @@
           <t>CDT_20</t>
         </is>
       </c>
-      <c r="B21" s="9" t="n">
+      <c r="B21" s="8" t="n">
         <v>45739.73437784722</v>
       </c>
       <c r="C21" t="inlineStr">
@@ -19086,7 +19076,7 @@
           <t>CDT_21</t>
         </is>
       </c>
-      <c r="B22" s="9" t="n">
+      <c r="B22" s="8" t="n">
         <v>45739.73797746528</v>
       </c>
       <c r="C22" t="inlineStr">
@@ -19166,7 +19156,7 @@
           <t>CDT_22</t>
         </is>
       </c>
-      <c r="B23" s="9" t="n">
+      <c r="B23" s="8" t="n">
         <v>45739.76857028935</v>
       </c>
       <c r="C23" t="inlineStr">
@@ -19246,7 +19236,7 @@
           <t>CDT_23</t>
         </is>
       </c>
-      <c r="B24" s="9" t="n">
+      <c r="B24" s="8" t="n">
         <v>45739.82228496528</v>
       </c>
       <c r="C24" t="inlineStr">
@@ -19326,7 +19316,7 @@
           <t>CDT_24</t>
         </is>
       </c>
-      <c r="B25" s="9" t="n">
+      <c r="B25" s="8" t="n">
         <v>45743.55823634259</v>
       </c>
       <c r="C25" t="inlineStr">
@@ -19402,7 +19392,7 @@
           <t>CDT_25</t>
         </is>
       </c>
-      <c r="B26" s="9" t="n">
+      <c r="B26" s="8" t="n">
         <v>45743.55870915509</v>
       </c>
       <c r="C26" t="inlineStr">
@@ -19482,8 +19472,8 @@
           <t>CDT_26</t>
         </is>
       </c>
-      <c r="B27" s="9" t="n">
-        <v>45748.001801372</v>
+      <c r="B27" s="8" t="n">
+        <v>45748.00180137732</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -19551,6 +19541,158 @@
         </is>
       </c>
       <c r="R27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CDT_27</t>
+        </is>
+      </c>
+      <c r="B28" s="8" t="n">
+        <v>45754.46525585648</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>30</v>
+      </c>
+      <c r="E28" t="n">
+        <v>45</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Célibataire</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Secondaire</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>CHAUFEUR</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Personnel des services directs aux particuliers, commercants vendeurs</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>NDOKOTI</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Catholique</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>91</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Non-éligible</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Poids insuffisant: 45.0 kg (minimum 50 kg),Grossesse récente (moins de 6 mois),Cycle menstruel irrégulier (nécessite évaluation médicale)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CDT_28</t>
+        </is>
+      </c>
+      <c r="B29" s="8" t="n">
+        <v>45754.48750717341</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>33</v>
+      </c>
+      <c r="E29" t="n">
+        <v>90</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Célibataire</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Universitaire 1er cycle</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaudronnier </t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>artisants et ouvriers d'industrie</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>New Bell</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Douala 2e</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>4.029279319157316</v>
+      </c>
+      <c r="M29" t="n">
+        <v>9.713362274244698</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Autre Chretien</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Bénin</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>Non-éligible</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Médicament(s) incompatible(s): Antibiotiques</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Infos.xlsx
+++ b/Infos.xlsx
@@ -17674,7 +17674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="B29" s="8" t="n">
-        <v>45754.48750717341</v>
+        <v>45754.48750717592</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -19693,6 +19693,82 @@
           <t>Médicament(s) incompatible(s): Antibiotiques</t>
         </is>
       </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CDT_29</t>
+        </is>
+      </c>
+      <c r="B30" s="8" t="n">
+        <v>45756.54757251103</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>30</v>
+      </c>
+      <c r="E30" t="n">
+        <v>70</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Célibataire</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Secondaire</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaudronnier </t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>artisants et ouvriers d'industrie</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Logbaba</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Douala 3e</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>4.043213985193655</v>
+      </c>
+      <c r="M30" t="n">
+        <v>9.7617599423344</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Pas de religion</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Cameroun</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Temporairement éligible</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
